--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\visualgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE352D2-0AD3-4986-950A-4CB67AE4A880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB908A-6FB0-4AE1-9CAF-4ED542904BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,30 @@
   </si>
   <si>
     <t>Descriptions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visualize stdout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done(ctrl+;)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +90,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,16 +130,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -372,44 +429,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="42.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.296875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="21.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.296875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\visualgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB908A-6FB0-4AE1-9CAF-4ED542904BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125F3124-656C-4AE6-9350-5D18894391CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>run Python Code in editor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Descriptions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>visualize stdout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +60,30 @@
   </si>
   <si>
     <t>Done(ctrl+;)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWorkspace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,11 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -448,30 +464,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -482,21 +498,46 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
     </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45418</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45418</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\visualgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125F3124-656C-4AE6-9350-5D18894391CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB908A-6FB0-4AE1-9CAF-4ED542904BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>run Python Code in editor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,6 +43,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Descriptions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>visualize stdout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,30 +68,6 @@
   </si>
   <si>
     <t>Done(ctrl+;)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connectDB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createWorkspace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,11 +429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -464,30 +448,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -498,46 +482,21 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45418</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45418</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\visualgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB908A-6FB0-4AE1-9CAF-4ED542904BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580C31F4-C8FF-4EB8-8BF6-C30D2D801711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,26 @@
   </si>
   <si>
     <t>Done(ctrl+;)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create workspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>express mysql session login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track variable in loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graphviz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,6 +159,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,31 +455,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.69921875" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="41.296875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -466,38 +492,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>45417</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="3">
+        <v>45421</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45421</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\visualgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580C31F4-C8FF-4EB8-8BF6-C30D2D801711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860B6399-E9AE-4DC1-ADD0-74159A780299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>graphviz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket.io send pythoncode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,12 +163,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,18 +453,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="41.296875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="1"/>
@@ -479,7 +477,7 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -499,7 +497,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="3">
@@ -510,7 +508,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="3">
@@ -524,37 +522,44 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>45421</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="3"/>
+    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\visualgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860B6399-E9AE-4DC1-ADD0-74159A780299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577E2C28-8100-41AE-A608-E8E8BA72060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14832" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,7 +91,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>socket.io send pythoncode</t>
+    <t>AST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>separate modules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>separate python running modules from editor.vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,11 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -525,41 +533,52 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
+      <c r="D4" s="3">
+        <v>45423</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>45421</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="3"/>
+    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
